--- a/simulation_data/two_step_algorithm/2s_error_level_15_percent_water_99.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_15_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.66070507602704</v>
+        <v>88.34145472528169</v>
       </c>
       <c r="D2" t="n">
-        <v>44.09023938850275</v>
+        <v>42.20928541012923</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>94.35093866573872</v>
+        <v>95.54592749868293</v>
       </c>
       <c r="D3" t="n">
-        <v>42.00501704849628</v>
+        <v>38.37248223067103</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>95.21483805719873</v>
+        <v>90.30125331764833</v>
       </c>
       <c r="D4" t="n">
-        <v>43.37292335754871</v>
+        <v>39.29593748891504</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>88.81313850134235</v>
+        <v>92.11492224503804</v>
       </c>
       <c r="D5" t="n">
-        <v>33.67172965211081</v>
+        <v>40.27371953161797</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>97.12922604485199</v>
+        <v>82.40735617640453</v>
       </c>
       <c r="D6" t="n">
-        <v>40.78639380246274</v>
+        <v>37.72210044655151</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>80.28493930882537</v>
+        <v>87.43092252436475</v>
       </c>
       <c r="D7" t="n">
-        <v>44.00653678362632</v>
+        <v>34.0448486165821</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>77.31420005096824</v>
+        <v>88.54074710959216</v>
       </c>
       <c r="D8" t="n">
-        <v>40.46549665185911</v>
+        <v>41.87744307252191</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>89.33334497132464</v>
+        <v>87.48802951660386</v>
       </c>
       <c r="D9" t="n">
-        <v>38.87021588193006</v>
+        <v>38.332321400345</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>88.1258171035432</v>
+        <v>83.9701990831327</v>
       </c>
       <c r="D10" t="n">
-        <v>43.11697046861532</v>
+        <v>37.5851032641555</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.98941177459001</v>
+        <v>83.00908685342414</v>
       </c>
       <c r="D11" t="n">
-        <v>40.91688448774549</v>
+        <v>38.53690422822167</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.33891697369717</v>
+        <v>87.20562799186733</v>
       </c>
       <c r="D12" t="n">
-        <v>36.8251480287615</v>
+        <v>38.97981385423997</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>76.03312605604965</v>
+        <v>87.77686789123415</v>
       </c>
       <c r="D13" t="n">
-        <v>47.47413063905903</v>
+        <v>38.78477191202748</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>81.90401054498449</v>
+        <v>78.43999186257487</v>
       </c>
       <c r="D14" t="n">
-        <v>42.6274595670383</v>
+        <v>36.06074693311439</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.59059436395542</v>
+        <v>79.10943646038564</v>
       </c>
       <c r="D15" t="n">
-        <v>40.43690110779849</v>
+        <v>44.15706232535755</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>73.11126380818791</v>
+        <v>81.0347971737044</v>
       </c>
       <c r="D16" t="n">
-        <v>38.06391373078264</v>
+        <v>36.71381921293798</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>78.8077335739947</v>
+        <v>75.71356933891354</v>
       </c>
       <c r="D17" t="n">
-        <v>41.80086823460654</v>
+        <v>41.72817859356314</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>77.03528645603713</v>
+        <v>78.74901229407151</v>
       </c>
       <c r="D18" t="n">
-        <v>42.430976544828</v>
+        <v>38.77921833503279</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>71.81716511742771</v>
+        <v>76.2020732516321</v>
       </c>
       <c r="D19" t="n">
-        <v>41.27424392282739</v>
+        <v>39.15981246346434</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>78.02589918715755</v>
+        <v>82.73358744630923</v>
       </c>
       <c r="D20" t="n">
-        <v>40.60897222503965</v>
+        <v>34.7646867250694</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.97834655783093</v>
+        <v>76.0591851329692</v>
       </c>
       <c r="D21" t="n">
-        <v>44.02108610634379</v>
+        <v>39.08910489144136</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.19803070263976</v>
+        <v>68.88225764062065</v>
       </c>
       <c r="D22" t="n">
-        <v>39.77541021541701</v>
+        <v>39.19266855252496</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>71.73686426810792</v>
+        <v>71.55263206716656</v>
       </c>
       <c r="D23" t="n">
-        <v>41.41255947307383</v>
+        <v>39.66476235532325</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.70751034297939</v>
+        <v>71.70150003867666</v>
       </c>
       <c r="D24" t="n">
-        <v>42.80184536802305</v>
+        <v>37.07527638981787</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>71.95246885780257</v>
+        <v>64.25231843290911</v>
       </c>
       <c r="D25" t="n">
-        <v>43.44466148731242</v>
+        <v>41.93425069820108</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>63.72450657644107</v>
+        <v>71.18590020821844</v>
       </c>
       <c r="D26" t="n">
-        <v>39.66221168822597</v>
+        <v>38.30720555079154</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>67.79618644041865</v>
+        <v>60.00152815148435</v>
       </c>
       <c r="D27" t="n">
-        <v>43.08161842009788</v>
+        <v>41.93553255556869</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.68952868056016</v>
+        <v>68.38614912341413</v>
       </c>
       <c r="D28" t="n">
-        <v>39.7752362383028</v>
+        <v>39.71018485428421</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>60.31827641261017</v>
+        <v>65.56732302460975</v>
       </c>
       <c r="D29" t="n">
-        <v>46.09836942397826</v>
+        <v>34.44202536420099</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>67.72430385872646</v>
+        <v>65.25283611603167</v>
       </c>
       <c r="D30" t="n">
-        <v>43.54902352907847</v>
+        <v>38.32912553096127</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>65.56011801488364</v>
+        <v>58.26693195602247</v>
       </c>
       <c r="D31" t="n">
-        <v>39.96327370840284</v>
+        <v>34.45103108265278</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>62.60246514033334</v>
+        <v>62.02582408264024</v>
       </c>
       <c r="D32" t="n">
-        <v>38.10815354483761</v>
+        <v>40.10220618138862</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>61.47328901403942</v>
+        <v>54.90943581969165</v>
       </c>
       <c r="D33" t="n">
-        <v>38.15945007518917</v>
+        <v>36.28862296922431</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>64.52442868668275</v>
+        <v>54.68032616822215</v>
       </c>
       <c r="D34" t="n">
-        <v>39.61428689283962</v>
+        <v>32.94412871425004</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>58.93821693556525</v>
+        <v>58.79192609715412</v>
       </c>
       <c r="D35" t="n">
-        <v>39.67983144630451</v>
+        <v>42.95020790407054</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>67.87514080024374</v>
+        <v>49.94363801810881</v>
       </c>
       <c r="D36" t="n">
-        <v>42.41404401342658</v>
+        <v>42.6419425720588</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.90604643084021</v>
+        <v>52.51741190408436</v>
       </c>
       <c r="D37" t="n">
-        <v>40.72203010803306</v>
+        <v>39.42485368509887</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>61.44881583900655</v>
+        <v>57.25099008336697</v>
       </c>
       <c r="D38" t="n">
-        <v>40.94635277700809</v>
+        <v>37.06044484952004</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.02443527525753</v>
+        <v>56.67541330036273</v>
       </c>
       <c r="D39" t="n">
-        <v>37.58074433160163</v>
+        <v>36.18288780783642</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>56.29106653663766</v>
+        <v>48.50805653184001</v>
       </c>
       <c r="D40" t="n">
-        <v>36.61714208594567</v>
+        <v>39.6350806420391</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>48.24120539185203</v>
+        <v>49.08958670520835</v>
       </c>
       <c r="D41" t="n">
-        <v>37.75769379112566</v>
+        <v>35.09294984664263</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>52.83434414967616</v>
+        <v>46.97247820644979</v>
       </c>
       <c r="D42" t="n">
-        <v>35.91269319949935</v>
+        <v>42.28806180627554</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>55.58940119095752</v>
+        <v>45.43847794498623</v>
       </c>
       <c r="D43" t="n">
-        <v>38.24213472387434</v>
+        <v>44.79125711343592</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>51.49214923584899</v>
+        <v>42.20910815533846</v>
       </c>
       <c r="D44" t="n">
-        <v>39.16649403980352</v>
+        <v>38.68801702435824</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>50.06810629189665</v>
+        <v>42.28494078629413</v>
       </c>
       <c r="D45" t="n">
-        <v>40.37700606444924</v>
+        <v>38.85532233391066</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>52.78017041066024</v>
+        <v>48.39989169883672</v>
       </c>
       <c r="D46" t="n">
-        <v>36.25099510300024</v>
+        <v>41.41542781630062</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>42.51917742868173</v>
+        <v>42.13108515642227</v>
       </c>
       <c r="D47" t="n">
-        <v>34.59594778884554</v>
+        <v>42.08806567696639</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.64486445187367</v>
+        <v>44.59994021722615</v>
       </c>
       <c r="D48" t="n">
-        <v>38.27913565671697</v>
+        <v>35.04690062230712</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>37.43169835128975</v>
+        <v>42.12838094675534</v>
       </c>
       <c r="D49" t="n">
-        <v>35.42986016926633</v>
+        <v>35.41005356935821</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.12951222110567</v>
+        <v>44.82757262986798</v>
       </c>
       <c r="D50" t="n">
-        <v>40.13068146259723</v>
+        <v>42.45896815057143</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>44.23133454114441</v>
+        <v>47.07954620008923</v>
       </c>
       <c r="D51" t="n">
-        <v>43.74418808972879</v>
+        <v>38.68158173082838</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>35.65466224306902</v>
+        <v>42.34676918527563</v>
       </c>
       <c r="D52" t="n">
-        <v>36.23504396850828</v>
+        <v>34.96082664182693</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.5248066115111</v>
+        <v>38.01552129238052</v>
       </c>
       <c r="D53" t="n">
-        <v>39.24310533481315</v>
+        <v>33.54387413098616</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.84760856513983</v>
+        <v>32.54322272742194</v>
       </c>
       <c r="D54" t="n">
-        <v>40.46026495796348</v>
+        <v>45.75335832960127</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>39.80933133770477</v>
+        <v>45.48189295019169</v>
       </c>
       <c r="D55" t="n">
-        <v>39.56401832258348</v>
+        <v>37.94496646471501</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>30.65114221901575</v>
+        <v>35.16555979136228</v>
       </c>
       <c r="D56" t="n">
-        <v>36.51762041345647</v>
+        <v>36.82278977914489</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.51186770956442</v>
+        <v>36.8402468158105</v>
       </c>
       <c r="D57" t="n">
-        <v>37.21354141971423</v>
+        <v>46.3998722482444</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>30.9936817419931</v>
+        <v>32.87902291938335</v>
       </c>
       <c r="D58" t="n">
-        <v>38.94719717471741</v>
+        <v>40.04557245962211</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>36.52749129464167</v>
+        <v>32.85044347512962</v>
       </c>
       <c r="D59" t="n">
-        <v>35.7730391779596</v>
+        <v>35.73777505808675</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>27.51301897598374</v>
+        <v>29.63793661431493</v>
       </c>
       <c r="D60" t="n">
-        <v>43.54079473767825</v>
+        <v>33.32836278978204</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>25.76554588289066</v>
+        <v>28.9110580782542</v>
       </c>
       <c r="D61" t="n">
-        <v>33.16637404829191</v>
+        <v>41.21648962483259</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>37.33579492901778</v>
+        <v>32.22669595691766</v>
       </c>
       <c r="D62" t="n">
-        <v>45.71603836972751</v>
+        <v>42.1648110663679</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>30.05862064832062</v>
+        <v>23.60745827047468</v>
       </c>
       <c r="D63" t="n">
-        <v>36.89060725378692</v>
+        <v>38.68180109003868</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>24.06167389028849</v>
+        <v>21.59827268244621</v>
       </c>
       <c r="D64" t="n">
-        <v>36.91373336805893</v>
+        <v>37.44925718745699</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>29.03295207928451</v>
+        <v>20.92670314345774</v>
       </c>
       <c r="D65" t="n">
-        <v>38.10024784938968</v>
+        <v>43.0387376450986</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>31.43711101413465</v>
+        <v>24.19153180079697</v>
       </c>
       <c r="D66" t="n">
-        <v>37.76184771099879</v>
+        <v>36.19621663181245</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>18.5626573248646</v>
+        <v>27.14134933886252</v>
       </c>
       <c r="D67" t="n">
-        <v>38.64937529033753</v>
+        <v>43.10382379356065</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>21.82374080644238</v>
+        <v>22.39950011695962</v>
       </c>
       <c r="D68" t="n">
-        <v>36.46155313694097</v>
+        <v>37.28214442371314</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>27.75014403219434</v>
+        <v>26.00557395875495</v>
       </c>
       <c r="D69" t="n">
-        <v>40.77901302962973</v>
+        <v>39.51456757236707</v>
       </c>
     </row>
   </sheetData>
